--- a/サンプル.xlsx
+++ b/サンプル.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws\demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takayuki_yamaoka/IdeaProjects/spring-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FB9623-BF79-4A61-867C-8663D4969523}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D85FBA6-0258-904A-AD50-1C6138F24EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="21580" windowHeight="9920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -151,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -179,40 +191,109 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -221,12 +302,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -245,35 +354,53 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -592,31 +719,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="3" width="15.75" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4" ht="19" thickBot="1"/>
     <row r="2" spans="2:4">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:4" ht="19" thickBot="1">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -624,42 +752,42 @@
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="1" t="s">
+    <row r="8" spans="2:4" ht="19" thickBot="1">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
     </row>
